--- a/LOGS/ed568ca4-0c35-40f7-b53d-a29d16d0bc1d/main_page_service_output/notes_cropped_df.xlsx
+++ b/LOGS/ed568ca4-0c35-40f7-b53d-a29d16d0bc1d/main_page_service_output/notes_cropped_df.xlsx
@@ -29,14 +29,13 @@
     <sheet name="23__2593a46b-f639-34" sheetId="20" r:id="rId20"/>
     <sheet name="24__7b5bfd3e-c637-38" sheetId="21" r:id="rId21"/>
     <sheet name="24__9b5cd521-7e99-36" sheetId="22" r:id="rId22"/>
-    <sheet name="6__f39d8c37-6a5d-3f0" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="615">
   <si>
     <t>10 Cash and cash equivalents</t>
   </si>
@@ -1881,63 +1880,6 @@
   </si>
   <si>
     <t>52683</t>
-  </si>
-  <si>
-    <t>6 Other Income</t>
-  </si>
-  <si>
-    <t>Foreign exchange gain</t>
-  </si>
-  <si>
-    <t>Dividend income Sales Commissions</t>
-  </si>
-  <si>
-    <t>Other income</t>
-  </si>
-  <si>
-    <t>7 Other Expenses</t>
-  </si>
-  <si>
-    <t>7176</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>1681</t>
-  </si>
-  <si>
-    <t>8972</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>1650</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>3845</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>249570</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>100534</t>
   </si>
 </sst>
 </file>
@@ -6269,116 +6211,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>616</v>
-      </c>
-      <c r="B3" t="s">
-        <v>620</v>
-      </c>
-      <c r="D3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>617</v>
-      </c>
-      <c r="B5" t="s">
-        <v>621</v>
-      </c>
-      <c r="C5" t="s">
-        <v>624</v>
-      </c>
-      <c r="D5" t="s">
-        <v>621</v>
-      </c>
-      <c r="E5" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>618</v>
-      </c>
-      <c r="B6" t="s">
-        <v>622</v>
-      </c>
-      <c r="C6" t="s">
-        <v>625</v>
-      </c>
-      <c r="D6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
-        <v>623</v>
-      </c>
-      <c r="C7" t="s">
-        <v>626</v>
-      </c>
-      <c r="D7" t="s">
-        <v>630</v>
-      </c>
-      <c r="E7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
